--- a/src/admin/test.xlsx
+++ b/src/admin/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="96">
   <si>
     <t>Company Id</t>
   </si>
@@ -105,6 +105,213 @@
   </si>
   <si>
     <t>Discount Percent</t>
+  </si>
+  <si>
+    <t>Whitsde Gold Ring</t>
+  </si>
+  <si>
+    <t>Wh123213ite Gold Ring</t>
+  </si>
+  <si>
+    <t>Whasdasite Gold Ring</t>
+  </si>
+  <si>
+    <t>Whitasdasdasdase Gold Ring</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>dav</t>
+  </si>
+  <si>
+    <t>vdf</t>
+  </si>
+  <si>
+    <t>fvd</t>
+  </si>
+  <si>
+    <t>rq</t>
+  </si>
+  <si>
+    <t>egb</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>zxv</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>5hutrm</t>
+  </si>
+  <si>
+    <t>nyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b </t>
+  </si>
+  <si>
+    <t>tmu</t>
+  </si>
+  <si>
+    <t>tnytber</t>
+  </si>
+  <si>
+    <t>j6</t>
+  </si>
+  <si>
+    <t>6j54</t>
+  </si>
+  <si>
+    <t>g3r</t>
+  </si>
+  <si>
+    <t>y564</t>
+  </si>
+  <si>
+    <t>g53</t>
+  </si>
+  <si>
+    <t>4j5</t>
+  </si>
+  <si>
+    <t>3rv</t>
+  </si>
+  <si>
+    <t>bt4</t>
+  </si>
+  <si>
+    <t>ny56mu</t>
+  </si>
+  <si>
+    <t>4uy53</t>
+  </si>
+  <si>
+    <t>6h4g53</t>
+  </si>
+  <si>
+    <t>51t</t>
+  </si>
+  <si>
+    <t>y23</t>
+  </si>
+  <si>
+    <t>5yu</t>
+  </si>
+  <si>
+    <t>3i7</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y535</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>5yrr</t>
+  </si>
+  <si>
+    <t>635t</t>
+  </si>
+  <si>
+    <t>rgf</t>
+  </si>
+  <si>
+    <t>er5</t>
+  </si>
+  <si>
+    <t>635y</t>
+  </si>
+  <si>
+    <t>65t</t>
+  </si>
+  <si>
+    <t>rer</t>
+  </si>
+  <si>
+    <t>4yr</t>
+  </si>
+  <si>
+    <t>er234</t>
+  </si>
+  <si>
+    <t>White Gold Ring5trfer34565</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>2344rfer34</t>
+  </si>
+  <si>
+    <t>rer3</t>
+  </si>
+  <si>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>42tr</t>
+  </si>
+  <si>
+    <t>53t</t>
+  </si>
+  <si>
+    <t>White Gold Ring54trfe144trfe14323</t>
+  </si>
+  <si>
+    <t>eqe</t>
+  </si>
+  <si>
+    <t>https://images.baunat.com/en/82414_CL-GW-R3-0030S_1_722x722/0-30-carat-solitaire-diamond-engagement-ring-in-white-gold.jpg, https://images.baunat.com/en/82414_CL-GW-R3-0030S_1_722x722/0-30-carat-solitaire-diamond-engagement-ring-in-white-gold.jpg,www.google.com,www.google.com,www.google.com,www.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.comwww.google.com</t>
   </si>
 </sst>
 </file>
@@ -496,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD126"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,8 +712,9 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" customWidth="1"/>
-    <col min="20" max="20" width="106.5703125" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="72" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -656,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -707,7 +915,7 @@
         <v>50</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>24</v>
@@ -724,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -792,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -860,7 +1068,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -928,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -996,7 +1204,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -1064,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -1132,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -1200,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -1268,7 +1476,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -1336,7 +1544,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -1404,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -1472,7 +1680,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -1540,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -1608,7 +1816,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -1676,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -1744,7 +1952,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -1812,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -1880,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -2016,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1">
         <v>100</v>
@@ -2084,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -2152,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
@@ -2220,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
@@ -2288,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -2356,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -2424,7 +2632,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -2492,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -2560,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1">
         <v>100</v>
@@ -2627,8 +2835,8 @@
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>21</v>
+      <c r="D32" s="1">
+        <v>54</v>
       </c>
       <c r="E32" s="1">
         <v>100</v>
@@ -2696,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1">
         <v>100</v>
@@ -2763,8 +2971,8 @@
       <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>21</v>
+      <c r="D34" s="1">
+        <v>5</v>
       </c>
       <c r="E34" s="1">
         <v>100</v>
@@ -2832,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1">
         <v>100</v>
@@ -2900,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <v>100</v>
@@ -2968,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1">
         <v>100</v>
@@ -3036,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1">
         <v>100</v>
@@ -3103,8 +3311,8 @@
       <c r="C39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>21</v>
+      <c r="D39" s="1">
+        <v>5</v>
       </c>
       <c r="E39" s="1">
         <v>100</v>
@@ -3171,8 +3379,8 @@
       <c r="C40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>21</v>
+      <c r="D40" s="1">
+        <v>5</v>
       </c>
       <c r="E40" s="1">
         <v>100</v>
@@ -3240,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1">
         <v>100</v>
@@ -3308,7 +3516,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1">
         <v>100</v>
@@ -3376,7 +3584,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1">
         <v>100</v>
@@ -3444,7 +3652,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1">
         <v>100</v>
@@ -3512,7 +3720,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1">
         <v>100</v>
@@ -3580,7 +3788,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1">
         <v>100</v>
@@ -3647,8 +3855,8 @@
       <c r="C47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>21</v>
+      <c r="D47" s="1">
+        <v>4</v>
       </c>
       <c r="E47" s="1">
         <v>100</v>
@@ -3716,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E48" s="1">
         <v>100</v>
@@ -3784,7 +3992,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1">
         <v>100</v>
@@ -3852,7 +4060,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E50" s="1">
         <v>100</v>
@@ -3920,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1">
         <v>100</v>
@@ -3988,7 +4196,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E52" s="1">
         <v>100</v>
@@ -4124,7 +4332,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E54" s="1">
         <v>100</v>
@@ -4192,7 +4400,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1">
         <v>100</v>
@@ -4260,7 +4468,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E56" s="1">
         <v>100</v>
@@ -4328,7 +4536,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E57" s="1">
         <v>100</v>
@@ -4396,7 +4604,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1">
         <v>100</v>
@@ -4464,7 +4672,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E59" s="1">
         <v>100</v>
@@ -4532,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E60" s="1">
         <v>100</v>
@@ -4599,8 +4807,8 @@
       <c r="C61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>21</v>
+      <c r="D61" s="1">
+        <v>564</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -4668,7 +4876,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E62" s="1">
         <v>100</v>
@@ -4736,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E63" s="1">
         <v>100</v>
@@ -4804,7 +5012,7 @@
         <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E64" s="1">
         <v>100</v>
@@ -4872,7 +5080,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E65" s="1">
         <v>100</v>
@@ -4940,7 +5148,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E66" s="1">
         <v>100</v>
@@ -5008,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1">
         <v>100</v>
@@ -5076,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E68" s="1">
         <v>100</v>
@@ -5143,8 +5351,8 @@
       <c r="C69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>21</v>
+      <c r="D69" s="1">
+        <v>3486453</v>
       </c>
       <c r="E69" s="1">
         <v>100</v>
@@ -5212,7 +5420,7 @@
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E70" s="1">
         <v>100</v>
@@ -5279,8 +5487,8 @@
       <c r="C71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>21</v>
+      <c r="D71" s="1">
+        <v>6</v>
       </c>
       <c r="E71" s="1">
         <v>100</v>
@@ -5347,8 +5555,8 @@
       <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>21</v>
+      <c r="D72" s="1">
+        <v>8</v>
       </c>
       <c r="E72" s="1">
         <v>100</v>
@@ -5415,8 +5623,8 @@
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>21</v>
+      <c r="D73" s="1">
+        <v>7362</v>
       </c>
       <c r="E73" s="1">
         <v>100</v>
@@ -5484,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E74" s="1">
         <v>100</v>
@@ -5552,7 +5760,7 @@
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E75" s="1">
         <v>100</v>
@@ -5619,8 +5827,8 @@
       <c r="C76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>21</v>
+      <c r="D76" s="1">
+        <v>736</v>
       </c>
       <c r="E76" s="1">
         <v>100</v>
@@ -5688,7 +5896,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E77" s="1">
         <v>100</v>
@@ -5756,7 +5964,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E78" s="1">
         <v>100</v>
@@ -5824,7 +6032,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E79" s="1">
         <v>100</v>
@@ -5892,7 +6100,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E80" s="1">
         <v>100</v>
@@ -5959,8 +6167,8 @@
       <c r="C81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>21</v>
+      <c r="D81" s="1">
+        <v>67</v>
       </c>
       <c r="E81" s="1">
         <v>100</v>
@@ -6096,7 +6304,7 @@
         <v>20</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E83" s="1">
         <v>100</v>
@@ -6163,8 +6371,8 @@
       <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>21</v>
+      <c r="D84" s="1">
+        <v>45</v>
       </c>
       <c r="E84" s="1">
         <v>100</v>
@@ -6231,8 +6439,8 @@
       <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>21</v>
+      <c r="D85" s="1">
+        <v>635</v>
       </c>
       <c r="E85" s="1">
         <v>100</v>
@@ -6300,7 +6508,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E86" s="1">
         <v>100</v>
@@ -6367,8 +6575,8 @@
       <c r="C87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>21</v>
+      <c r="D87" s="1">
+        <v>5</v>
       </c>
       <c r="E87" s="1">
         <v>100</v>
@@ -6435,8 +6643,8 @@
       <c r="C88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>21</v>
+      <c r="D88" s="1">
+        <v>6</v>
       </c>
       <c r="E88" s="1">
         <v>100</v>
@@ -6504,7 +6712,7 @@
         <v>20</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E89" s="1">
         <v>100</v>
@@ -6571,8 +6779,8 @@
       <c r="C90" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>21</v>
+      <c r="D90" s="1">
+        <v>5</v>
       </c>
       <c r="E90" s="1">
         <v>100</v>
@@ -6640,7 +6848,7 @@
         <v>20</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E91" s="1">
         <v>100</v>
@@ -6708,7 +6916,7 @@
         <v>20</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E92" s="1">
         <v>100</v>
@@ -6776,7 +6984,7 @@
         <v>20</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E93" s="1">
         <v>100</v>
@@ -6844,7 +7052,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E94" s="1">
         <v>100</v>
@@ -6912,7 +7120,7 @@
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
@@ -6979,8 +7187,8 @@
       <c r="C96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>21</v>
+      <c r="D96" s="1">
+        <v>45</v>
       </c>
       <c r="E96" s="1">
         <v>100</v>
@@ -7048,7 +7256,7 @@
         <v>20</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E97" s="1">
         <v>100</v>
@@ -7116,7 +7324,7 @@
         <v>20</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E98" s="1">
         <v>100</v>
@@ -7183,8 +7391,8 @@
       <c r="C99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>21</v>
+      <c r="D99" s="1">
+        <v>52</v>
       </c>
       <c r="E99" s="1">
         <v>100</v>
@@ -7252,7 +7460,7 @@
         <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E100" s="1">
         <v>100</v>
@@ -7320,7 +7528,7 @@
         <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E101" s="1">
         <v>100</v>
@@ -7388,7 +7596,7 @@
         <v>20</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E102" s="1">
         <v>100</v>
@@ -7456,7 +7664,7 @@
         <v>20</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E103" s="1">
         <v>100</v>
@@ -7524,7 +7732,7 @@
         <v>20</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E104" s="1">
         <v>100</v>
@@ -7591,8 +7799,8 @@
       <c r="C105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>21</v>
+      <c r="D105" s="1">
+        <v>565</v>
       </c>
       <c r="E105" s="1">
         <v>100</v>
@@ -7659,8 +7867,8 @@
       <c r="C106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>21</v>
+      <c r="D106" s="1">
+        <v>3424</v>
       </c>
       <c r="E106" s="1">
         <v>100</v>
@@ -7796,7 +8004,7 @@
         <v>20</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E108" s="1">
         <v>100</v>
@@ -7863,8 +8071,8 @@
       <c r="C109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>21</v>
+      <c r="D109" s="1">
+        <v>2453</v>
       </c>
       <c r="E109" s="1">
         <v>100</v>
@@ -7932,7 +8140,7 @@
         <v>20</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E110" s="1">
         <v>100</v>
@@ -8000,7 +8208,7 @@
         <v>20</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E111" s="1">
         <v>100</v>
@@ -8068,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="E112" s="1">
         <v>100</v>
@@ -8203,8 +8411,8 @@
       <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>21</v>
+      <c r="D114" s="1">
+        <v>4</v>
       </c>
       <c r="E114" s="1">
         <v>100</v>
@@ -8272,7 +8480,7 @@
         <v>20</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E115" s="1">
         <v>100</v>
@@ -8340,7 +8548,7 @@
         <v>20</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E116" s="1">
         <v>100</v>
@@ -8407,8 +8615,8 @@
       <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>21</v>
+      <c r="D117" s="1">
+        <v>14</v>
       </c>
       <c r="E117" s="1">
         <v>100</v>
@@ -8476,7 +8684,7 @@
         <v>20</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="E118" s="1">
         <v>100</v>
@@ -8611,8 +8819,8 @@
       <c r="C120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>21</v>
+      <c r="D120" s="1">
+        <v>32</v>
       </c>
       <c r="E120" s="1">
         <v>100</v>
@@ -8747,8 +8955,8 @@
       <c r="C122" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>21</v>
+      <c r="D122" s="1">
+        <v>32</v>
       </c>
       <c r="E122" s="1">
         <v>100</v>
@@ -8816,7 +9024,7 @@
         <v>20</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E123" s="1">
         <v>100</v>
@@ -8883,8 +9091,8 @@
       <c r="C124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>21</v>
+      <c r="D124" s="1">
+        <v>23</v>
       </c>
       <c r="E124" s="1">
         <v>100</v>
@@ -8952,7 +9160,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E125" s="1">
         <v>100</v>
@@ -9020,7 +9228,7 @@
         <v>20</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E126" s="1">
         <v>100</v>
